--- a/documentos/Backlog e Requisitos.xlsx
+++ b/documentos/Backlog e Requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\VagaFacil\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F8DB45-910D-4E47-AC09-EEA3160DCF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D013CA-91FD-4784-9B24-0424ABC357A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{9332CED2-CA08-4B4F-8188-CC5E418AAD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,20 +694,13 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Bahnschrift Light"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,20 +719,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -936,50 +917,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1099,36 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3683,34 +3595,34 @@
       <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="60.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -3722,7 +3634,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3733,7 +3645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3744,7 +3656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3755,7 +3667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3777,7 +3689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
@@ -3788,14 +3700,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -3806,7 +3718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3817,7 +3729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -3828,7 +3740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +3751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3850,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3861,7 +3773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -3883,7 +3795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -3894,7 +3806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
@@ -3905,14 +3817,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -3923,7 +3835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3934,7 +3846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
@@ -3945,14 +3857,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>48</v>
       </c>
@@ -3963,7 +3875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3974,7 +3886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
@@ -3985,7 +3897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
@@ -3996,7 +3908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4007,7 +3919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -4018,7 +3930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
@@ -4029,7 +3941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
@@ -4040,7 +3952,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
@@ -4072,22 +3984,22 @@
       <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4010,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -4107,7 +4019,7 @@
       <c r="G3" s="37"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
@@ -4118,7 +4030,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -4141,7 +4053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="21" t="s">
         <v>114</v>
@@ -4183,7 +4095,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="23" t="s">
         <v>73</v>
@@ -4226,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="21" t="s">
         <v>115</v>
@@ -4250,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="23" t="s">
         <v>97</v>
@@ -4292,7 +4204,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="21" t="s">
         <v>127</v>
@@ -4340,7 +4252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="23" t="s">
         <v>128</v>
@@ -4365,7 +4277,7 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="21" t="s">
         <v>162</v>
@@ -4389,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="23" t="s">
         <v>160</v>
@@ -4413,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="21" t="s">
         <v>149</v>
@@ -4437,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="23" t="s">
         <v>86</v>
@@ -4461,7 +4373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="21" t="s">
         <v>150</v>
@@ -4483,7 +4395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="23" t="s">
         <v>131</v>
@@ -4507,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="21" t="s">
         <v>152</v>
@@ -4529,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="23" t="s">
         <v>129</v>
@@ -4553,7 +4465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="21" t="s">
         <v>106</v>
@@ -4577,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="23" t="s">
         <v>132</v>
@@ -4601,7 +4513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="21" t="s">
         <v>83</v>
@@ -4625,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="23" t="s">
         <v>116</v>
@@ -4650,7 +4562,7 @@
       </c>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>117</v>
@@ -4674,7 +4586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="23" t="s">
         <v>93</v>
@@ -4698,7 +4610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="21" t="s">
         <v>130</v>
@@ -4722,7 +4634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="23" t="s">
         <v>143</v>
@@ -4746,7 +4658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="21" t="s">
         <v>134</v>
@@ -4770,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="23" t="s">
         <v>142</v>
@@ -4794,7 +4706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="21" t="s">
         <v>133</v>
@@ -4818,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="23" t="s">
         <v>118</v>
@@ -4842,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="21" t="s">
         <v>80</v>
@@ -4866,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
       <c r="B33" s="23" t="s">
         <v>69</v>
@@ -4890,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>79</v>
@@ -4914,7 +4826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="23" t="s">
         <v>120</v>
@@ -4938,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="21" t="s">
         <v>121</v>
@@ -4962,7 +4874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
       <c r="B37" s="23" t="s">
         <v>122</v>
@@ -4986,7 +4898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
       <c r="B38" s="21" t="s">
         <v>109</v>
@@ -5010,7 +4922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="23" t="s">
         <v>90</v>
@@ -5034,7 +4946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="21" t="s">
         <v>100</v>
@@ -5058,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
       <c r="B41" s="23" t="s">
         <v>151</v>
@@ -5080,7 +4992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
       <c r="B42" s="21" t="s">
         <v>126</v>
@@ -5104,7 +5016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="23" t="s">
         <v>125</v>
@@ -5128,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
       <c r="B44" s="21" t="s">
         <v>119</v>
@@ -5152,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="23" t="s">
         <v>153</v>
@@ -5174,7 +5086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="21" t="s">
         <v>112</v>
@@ -5198,7 +5110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="23" t="s">
         <v>8</v>
@@ -5222,7 +5134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="21" t="s">
         <v>164</v>
       </c>
@@ -5243,7 +5155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="23" t="s">
         <v>167</v>
       </c>
@@ -5264,7 +5176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="25" x14ac:dyDescent="0.35">
       <c r="B50" s="21" t="s">
         <v>169</v>
       </c>
@@ -5285,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="25" x14ac:dyDescent="0.35">
       <c r="B51" s="23" t="s">
         <v>171</v>
       </c>
@@ -5306,7 +5218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="21" t="s">
         <v>173</v>
       </c>
@@ -5327,7 +5239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="23" t="s">
         <v>176</v>
       </c>
@@ -5348,7 +5260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="21" t="s">
         <v>177</v>
       </c>
@@ -5369,7 +5281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>179</v>
       </c>
@@ -5390,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -5414,26 +5326,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BBC8D3-9436-4316-9927-31F242AE0E2A}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.26953125" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
@@ -5444,7 +5356,7 @@
       <c r="G2" s="31"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -5453,7 +5365,7 @@
       <c r="G3" s="37"/>
       <c r="H3" s="38"/>
     </row>
-    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
@@ -5464,7 +5376,7 @@
       <c r="G4" s="40"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -5487,7 +5399,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="21" t="s">
         <v>114</v>
@@ -5541,7 +5453,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="23" t="s">
         <v>73</v>
@@ -5596,7 +5508,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="21" t="s">
         <v>115</v>
@@ -5620,7 +5532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="23" t="s">
         <v>97</v>
@@ -5674,7 +5586,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="21" t="s">
         <v>127</v>
@@ -5702,35 +5614,35 @@
         <v>456</v>
       </c>
       <c r="K10" s="11">
-        <f>J10-K7</f>
+        <f t="shared" ref="K10:P10" si="0">J10-K7</f>
         <v>422</v>
       </c>
       <c r="L10" s="11">
-        <f>K10-L7</f>
+        <f t="shared" si="0"/>
         <v>322</v>
       </c>
       <c r="M10" s="11">
-        <f>L10-M7</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="N10" s="11">
-        <f>M10-N7</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="O10" s="11">
-        <f>N10-O7</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="P10" s="11">
-        <f>O10-P7</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" ref="Q10:R10" si="0">P10-Q7</f>
+        <f t="shared" ref="Q10:R10" si="1">P10-Q7</f>
         <v>99</v>
       </c>
       <c r="R10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="S10" s="11">
@@ -5738,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="23" t="s">
         <v>128</v>
@@ -5763,7 +5675,7 @@
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="21" t="s">
         <v>162</v>
@@ -5787,7 +5699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="23" t="s">
         <v>160</v>
@@ -5811,7 +5723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="21" t="s">
         <v>149</v>
@@ -5835,984 +5747,984 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="43">
+      <c r="F15" s="11">
         <v>5</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="11">
         <v>43</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="10">
         <v>5</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="10">
         <v>26</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="11">
         <v>5</v>
       </c>
-      <c r="G17" s="43">
+      <c r="G17" s="11">
         <v>40</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="10">
         <v>5</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="10">
         <v>29</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="43">
+      <c r="F19" s="11">
         <v>5</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="11">
         <v>42</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="10">
         <v>5</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="10">
         <v>35</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="11">
         <v>5</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="11">
         <v>11</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="10">
         <v>5</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="10">
         <v>30</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="11">
         <v>8</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="11">
         <v>5</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="10">
         <v>8</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="10">
         <v>10</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="22">
         <v>2</v>
       </c>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="E25" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="43">
+      <c r="F25" s="11">
         <v>8</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="11">
         <v>12</v>
       </c>
-      <c r="H25" s="44">
+      <c r="H25" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="10">
         <v>8</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="10">
         <v>16</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="11">
         <v>8</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="11">
         <v>31</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="10">
         <v>8</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="10">
         <v>20</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="11">
         <v>8</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="11">
         <v>36</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="10">
         <v>8</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="10">
         <v>21</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="43">
+      <c r="F31" s="11">
         <v>8</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="11">
         <v>34</v>
       </c>
-      <c r="H31" s="44">
+      <c r="H31" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="10">
         <v>13</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="10">
         <v>7</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="11">
         <v>13</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="11">
         <v>6</v>
       </c>
-      <c r="H33" s="44">
+      <c r="H33" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="10">
         <v>1</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="43">
+      <c r="F35" s="11">
         <v>13</v>
       </c>
-      <c r="G35" s="43">
+      <c r="G35" s="11">
         <v>25</v>
       </c>
-      <c r="H35" s="44">
+      <c r="H35" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="10">
         <v>13</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="10">
         <v>8</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="43">
+      <c r="F37" s="11">
         <v>13</v>
       </c>
-      <c r="G37" s="43">
+      <c r="G37" s="11">
         <v>13</v>
       </c>
-      <c r="H37" s="44">
+      <c r="H37" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="10">
         <v>13</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="10">
         <v>15</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="11">
         <v>13</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="11">
         <v>44</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="10">
         <v>13</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="10">
         <v>45</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="43">
+      <c r="F41" s="11">
         <v>13</v>
       </c>
-      <c r="G41" s="43">
+      <c r="G41" s="11">
         <v>14</v>
       </c>
-      <c r="H41" s="44">
+      <c r="H41" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="10">
         <v>13</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="10">
         <v>41</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="43">
+      <c r="F43" s="11">
         <v>13</v>
       </c>
-      <c r="G43" s="43">
+      <c r="G43" s="11">
         <v>23</v>
       </c>
-      <c r="H43" s="44">
+      <c r="H43" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="10">
         <v>13</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="10">
         <v>19</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="43">
+      <c r="F45" s="11">
         <v>13</v>
       </c>
-      <c r="G45" s="43">
+      <c r="G45" s="11">
         <v>22</v>
       </c>
-      <c r="H45" s="44">
+      <c r="H45" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="10">
         <v>13</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="10">
         <v>43</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="43">
+      <c r="F47" s="11">
         <v>21</v>
       </c>
-      <c r="G47" s="43">
+      <c r="G47" s="11">
         <v>28</v>
       </c>
-      <c r="H47" s="44">
+      <c r="H47" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
+    <row r="48" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="43">
+      <c r="F48" s="10">
         <v>5</v>
       </c>
-      <c r="G48" s="43">
+      <c r="G48" s="10">
         <v>46</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="42" t="s">
+    <row r="49" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F49" s="43">
+      <c r="F49" s="11">
         <v>8</v>
       </c>
-      <c r="G49" s="43">
+      <c r="G49" s="11">
         <v>47</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="42" t="s">
+    <row r="50" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="43">
+      <c r="F50" s="10">
         <v>13</v>
       </c>
-      <c r="G50" s="43">
+      <c r="G50" s="10">
         <v>48</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="45" t="s">
+    <row r="51" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="11">
         <v>13</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="11">
         <v>49</v>
       </c>
-      <c r="H51" s="47">
+      <c r="H51" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42" t="s">
+    <row r="52" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="43">
+      <c r="F52" s="10">
         <v>13</v>
       </c>
-      <c r="G52" s="43">
+      <c r="G52" s="10">
         <v>33</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="45" t="s">
+    <row r="53" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="11">
         <v>21</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="11">
         <v>37</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="48" t="s">
+    <row r="54" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="49">
+      <c r="F54" s="10">
         <v>13</v>
       </c>
-      <c r="G54" s="49">
+      <c r="G54" s="10">
         <v>38</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H54" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="48" t="s">
+    <row r="55" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F55" s="49">
+      <c r="F55" s="11">
         <v>5</v>
       </c>
-      <c r="G55" s="49">
+      <c r="G55" s="11">
         <v>50</v>
       </c>
-      <c r="H55" s="50">
+      <c r="H55" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -6826,7 +6738,7 @@
     <mergeCell ref="B2:H3"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6834,23 +6746,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d029c515-0698-44b3-a257-13b9aeaa6222" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100304D1BD6A797FA429AD32DD54426A246" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e35a718f99b259fb6f4d5b2085aee5ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d029c515-0698-44b3-a257-13b9aeaa6222" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e3a67cfaa2d42426d64ed184a490dd0" ns3:_="">
     <xsd:import namespace="d029c515-0698-44b3-a257-13b9aeaa6222"/>
@@ -7032,10 +6927,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d029c515-0698-44b3-a257-13b9aeaa6222" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C59D1CCA-49A8-465E-BB52-99854B7FF734}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02990EA6-9E1D-4811-AE24-4FA311A213B0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d029c515-0698-44b3-a257-13b9aeaa6222"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7057,19 +6979,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02990EA6-9E1D-4811-AE24-4FA311A213B0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C59D1CCA-49A8-465E-BB52-99854B7FF734}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d029c515-0698-44b3-a257-13b9aeaa6222"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>